--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Igf2-Insr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Insr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H2">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J2">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N2">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P2">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q2">
-        <v>7686.490168746069</v>
+        <v>116.2215186757313</v>
       </c>
       <c r="R2">
-        <v>7686.490168746069</v>
+        <v>1045.993668081582</v>
       </c>
       <c r="S2">
-        <v>0.2393470417810125</v>
+        <v>0.003310160785752121</v>
       </c>
       <c r="T2">
-        <v>0.2393470417810125</v>
+        <v>0.00331016078575212</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H3">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J3">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N3">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P3">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q3">
-        <v>6494.094369792524</v>
+        <v>93.25430509724633</v>
       </c>
       <c r="R3">
-        <v>6494.094369792524</v>
+        <v>839.288745875217</v>
       </c>
       <c r="S3">
-        <v>0.2022174285445208</v>
+        <v>0.002656020566180461</v>
       </c>
       <c r="T3">
-        <v>0.2022174285445208</v>
+        <v>0.00265602056618046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H4">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J4">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N4">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P4">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q4">
-        <v>4235.629486302831</v>
+        <v>63.94189937331533</v>
       </c>
       <c r="R4">
-        <v>4235.629486302831</v>
+        <v>575.4770943598379</v>
       </c>
       <c r="S4">
-        <v>0.1318918473023163</v>
+        <v>0.00182115988746113</v>
       </c>
       <c r="T4">
-        <v>0.1318918473023163</v>
+        <v>0.001821159887461129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>595.134839492354</v>
+        <v>8.533920999999999</v>
       </c>
       <c r="H5">
-        <v>595.134839492354</v>
+        <v>25.601763</v>
       </c>
       <c r="I5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="J5">
-        <v>0.7438127132956623</v>
+        <v>0.01014124689657672</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.192699843146681</v>
+        <v>9.684515333333332</v>
       </c>
       <c r="N5">
-        <v>9.192699843146681</v>
+        <v>29.053546</v>
       </c>
       <c r="O5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="P5">
-        <v>0.2290313040133489</v>
+        <v>0.2321120549759609</v>
       </c>
       <c r="Q5">
-        <v>5470.895945652487</v>
+        <v>82.64688877795531</v>
       </c>
       <c r="R5">
-        <v>5470.895945652487</v>
+        <v>743.8219990015979</v>
       </c>
       <c r="S5">
-        <v>0.1703563956678127</v>
+        <v>0.002353905657183009</v>
       </c>
       <c r="T5">
-        <v>0.1703563956678127</v>
+        <v>0.002353905657183008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H6">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J6">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.9155439384167</v>
+        <v>13.61877133333333</v>
       </c>
       <c r="N6">
-        <v>12.9155439384167</v>
+        <v>40.856314</v>
       </c>
       <c r="O6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691278</v>
       </c>
       <c r="P6">
-        <v>0.3217840156570073</v>
+        <v>0.3264056993691277</v>
       </c>
       <c r="Q6">
-        <v>2647.415169721469</v>
+        <v>8153.03628081129</v>
       </c>
       <c r="R6">
-        <v>2647.415169721469</v>
+        <v>73377.32652730161</v>
       </c>
       <c r="S6">
-        <v>0.08243697387599483</v>
+        <v>0.2322105345814182</v>
       </c>
       <c r="T6">
-        <v>0.08243697387599483</v>
+        <v>0.2322105345814181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H7">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J7">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.9119714371485</v>
+        <v>10.92748633333333</v>
       </c>
       <c r="N7">
-        <v>10.9119714371485</v>
+        <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928843</v>
       </c>
       <c r="P7">
-        <v>0.2718660557017667</v>
+        <v>0.2619027613928842</v>
       </c>
       <c r="Q7">
-        <v>2236.724899239182</v>
+        <v>6541.86712979562</v>
       </c>
       <c r="R7">
-        <v>2236.724899239182</v>
+        <v>58876.80416816058</v>
       </c>
       <c r="S7">
-        <v>0.06964862715724596</v>
+        <v>0.1863220536557317</v>
       </c>
       <c r="T7">
-        <v>0.06964862715724596</v>
+        <v>0.1863220536557317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>204.9789913878</v>
+        <v>598.661662</v>
       </c>
       <c r="H8">
-        <v>204.9789913878</v>
+        <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232693</v>
       </c>
       <c r="J8">
-        <v>0.2561872867043377</v>
+        <v>0.7114169116232691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.11709213649094</v>
+        <v>7.492675333333334</v>
       </c>
       <c r="N8">
-        <v>7.11709213649094</v>
+        <v>22.478026</v>
       </c>
       <c r="O8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="P8">
-        <v>0.1773186246278771</v>
+        <v>0.1795794842620271</v>
       </c>
       <c r="Q8">
-        <v>1458.854367751955</v>
+        <v>4485.577467879737</v>
       </c>
       <c r="R8">
-        <v>1458.854367751955</v>
+        <v>40370.19721091763</v>
       </c>
       <c r="S8">
-        <v>0.04542677732556079</v>
+        <v>0.1277558820845908</v>
       </c>
       <c r="T8">
-        <v>0.04542677732556079</v>
+        <v>0.1277558820845907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>598.661662</v>
+      </c>
+      <c r="H9">
+        <v>1795.984986</v>
+      </c>
+      <c r="I9">
+        <v>0.7114169116232693</v>
+      </c>
+      <c r="J9">
+        <v>0.7114169116232691</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.684515333333332</v>
+      </c>
+      <c r="N9">
+        <v>29.053546</v>
+      </c>
+      <c r="O9">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="P9">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="Q9">
+        <v>5797.748045117816</v>
+      </c>
+      <c r="R9">
+        <v>52179.73240606035</v>
+      </c>
+      <c r="S9">
+        <v>0.1651284413015286</v>
+      </c>
+      <c r="T9">
+        <v>0.1651284413015286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.049701</v>
+      </c>
+      <c r="I10">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J10">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.61877133333333</v>
+      </c>
+      <c r="N10">
+        <v>40.856314</v>
+      </c>
+      <c r="O10">
+        <v>0.3264056993691278</v>
+      </c>
+      <c r="P10">
+        <v>0.3264056993691277</v>
+      </c>
+      <c r="Q10">
+        <v>9.304803073568225</v>
+      </c>
+      <c r="R10">
+        <v>83.74322766211402</v>
+      </c>
+      <c r="S10">
+        <v>0.0002650145567208364</v>
+      </c>
+      <c r="T10">
+        <v>0.0002650145567208363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.049701</v>
+      </c>
+      <c r="I11">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J11">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.92748633333333</v>
+      </c>
+      <c r="N11">
+        <v>32.782459</v>
+      </c>
+      <c r="O11">
+        <v>0.2619027613928843</v>
+      </c>
+      <c r="P11">
+        <v>0.2619027613928842</v>
+      </c>
+      <c r="Q11">
+        <v>7.466026554973224</v>
+      </c>
+      <c r="R11">
+        <v>67.19423899475902</v>
+      </c>
+      <c r="S11">
+        <v>0.0002126434812524691</v>
+      </c>
+      <c r="T11">
+        <v>0.000212643481252469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.049701</v>
+      </c>
+      <c r="I12">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J12">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>7.492675333333334</v>
+      </c>
+      <c r="N12">
+        <v>22.478026</v>
+      </c>
+      <c r="O12">
+        <v>0.1795794842620271</v>
+      </c>
+      <c r="P12">
+        <v>0.1795794842620271</v>
+      </c>
+      <c r="Q12">
+        <v>5.119248041136223</v>
+      </c>
+      <c r="R12">
+        <v>46.073232370226</v>
+      </c>
+      <c r="S12">
+        <v>0.0001458037574400234</v>
+      </c>
+      <c r="T12">
+        <v>0.0001458037574400234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.6832336666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.049701</v>
+      </c>
+      <c r="I13">
+        <v>0.0008119176755585232</v>
+      </c>
+      <c r="J13">
+        <v>0.0008119176755585231</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.684515333333332</v>
+      </c>
+      <c r="N13">
+        <v>29.053546</v>
+      </c>
+      <c r="O13">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="P13">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="Q13">
+        <v>6.616786921082888</v>
+      </c>
+      <c r="R13">
+        <v>59.551082289746</v>
+      </c>
+      <c r="S13">
+        <v>0.0001884558801451944</v>
+      </c>
+      <c r="T13">
+        <v>0.0001884558801451943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>233.627271</v>
+      </c>
+      <c r="H14">
+        <v>700.881813</v>
+      </c>
+      <c r="I14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J14">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.61877133333333</v>
+      </c>
+      <c r="N14">
+        <v>40.856314</v>
+      </c>
+      <c r="O14">
+        <v>0.3264056993691278</v>
+      </c>
+      <c r="P14">
+        <v>0.3264056993691277</v>
+      </c>
+      <c r="Q14">
+        <v>3181.716380979698</v>
+      </c>
+      <c r="R14">
+        <v>28635.44742881728</v>
+      </c>
+      <c r="S14">
+        <v>0.09061998944523669</v>
+      </c>
+      <c r="T14">
+        <v>0.09061998944523665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="H9">
-        <v>204.9789913878</v>
-      </c>
-      <c r="I9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="J9">
-        <v>0.2561872867043377</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.192699843146681</v>
-      </c>
-      <c r="N9">
-        <v>9.192699843146681</v>
-      </c>
-      <c r="O9">
-        <v>0.2290313040133489</v>
-      </c>
-      <c r="P9">
-        <v>0.2290313040133489</v>
-      </c>
-      <c r="Q9">
-        <v>1884.310341978994</v>
-      </c>
-      <c r="R9">
-        <v>1884.310341978994</v>
-      </c>
-      <c r="S9">
-        <v>0.05867490834553614</v>
-      </c>
-      <c r="T9">
-        <v>0.05867490834553614</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>233.627271</v>
+      </c>
+      <c r="H15">
+        <v>700.881813</v>
+      </c>
+      <c r="I15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J15">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.92748633333333</v>
+      </c>
+      <c r="N15">
+        <v>32.782459</v>
+      </c>
+      <c r="O15">
+        <v>0.2619027613928843</v>
+      </c>
+      <c r="P15">
+        <v>0.2619027613928842</v>
+      </c>
+      <c r="Q15">
+        <v>2552.958810946463</v>
+      </c>
+      <c r="R15">
+        <v>22976.62929851817</v>
+      </c>
+      <c r="S15">
+        <v>0.07271204368971965</v>
+      </c>
+      <c r="T15">
+        <v>0.07271204368971962</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>233.627271</v>
+      </c>
+      <c r="H16">
+        <v>700.881813</v>
+      </c>
+      <c r="I16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J16">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.492675333333334</v>
+      </c>
+      <c r="N16">
+        <v>22.478026</v>
+      </c>
+      <c r="O16">
+        <v>0.1795794842620271</v>
+      </c>
+      <c r="P16">
+        <v>0.1795794842620271</v>
+      </c>
+      <c r="Q16">
+        <v>1750.493290615682</v>
+      </c>
+      <c r="R16">
+        <v>15754.43961554114</v>
+      </c>
+      <c r="S16">
+        <v>0.04985663853253516</v>
+      </c>
+      <c r="T16">
+        <v>0.04985663853253514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>233.627271</v>
+      </c>
+      <c r="H17">
+        <v>700.881813</v>
+      </c>
+      <c r="I17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="J17">
+        <v>0.2776299238045956</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.684515333333332</v>
+      </c>
+      <c r="N17">
+        <v>29.053546</v>
+      </c>
+      <c r="O17">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="P17">
+        <v>0.2321120549759609</v>
+      </c>
+      <c r="Q17">
+        <v>2262.566888284322</v>
+      </c>
+      <c r="R17">
+        <v>20363.1019945589</v>
+      </c>
+      <c r="S17">
+        <v>0.06444125213710414</v>
+      </c>
+      <c r="T17">
+        <v>0.06444125213710412</v>
       </c>
     </row>
   </sheetData>
